--- a/分組-模具三.xlsx
+++ b/分組-模具三.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="9936"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="2019_1專題" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2018_2_CAD" sheetId="1" r:id="rId4"/>
     <sheet name="2018_1_CAD" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>17,27</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,13 +231,17 @@
   </si>
   <si>
     <t>簡易掃地機器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -612,18 +616,18 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="3" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="8"/>
+    <col min="2" max="3" width="8.875" style="6"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" s="9">
         <v>43703</v>
       </c>
@@ -631,7 +635,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -643,7 +647,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D15" ca="1" si="0">RAND()*20</f>
-        <v>18.257575793823776</v>
+        <v>12.967945375989318</v>
       </c>
       <c r="E2">
         <v>1.2412231747205293E-2</v>
@@ -652,7 +656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -664,7 +668,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89852351887238946</v>
+        <v>2.3766720250561502</v>
       </c>
       <c r="E3">
         <v>0.85470221605220997</v>
@@ -673,7 +677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -685,7 +689,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.425558960080156</v>
+        <v>2.2290296328444881</v>
       </c>
       <c r="E4">
         <v>3.1937825777940376</v>
@@ -697,7 +701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -709,7 +713,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7569865031237519</v>
+        <v>1.2948461240923437</v>
       </c>
       <c r="E5">
         <v>4.5432547184313643</v>
@@ -718,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -730,7 +734,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78703368003960605</v>
+        <v>2.7408600832057717</v>
       </c>
       <c r="E6">
         <v>5.8538211893155401</v>
@@ -739,7 +743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -751,7 +755,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.677378019173918</v>
+        <v>2.4954523577236043</v>
       </c>
       <c r="E7">
         <v>8.3328042675709426</v>
@@ -760,7 +764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -772,7 +776,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>19.351993378419859</v>
+        <v>14.709703024926728</v>
       </c>
       <c r="E8">
         <v>9.5048887623068108</v>
@@ -781,7 +785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -793,7 +797,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0084280146599762</v>
+        <v>15.6783130934177</v>
       </c>
       <c r="E9">
         <v>12.493990291096392</v>
@@ -802,7 +806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -814,7 +818,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1308880399426311</v>
+        <v>13.671144792834554</v>
       </c>
       <c r="E10">
         <v>13.912876063120219</v>
@@ -823,7 +827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -835,7 +839,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4634925687627183</v>
+        <v>18.497991166249786</v>
       </c>
       <c r="E11">
         <v>15.547067137355704</v>
@@ -844,7 +848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -856,13 +860,13 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.206157290656675</v>
+        <v>9.2524339397361963</v>
       </c>
       <c r="E12">
         <v>16.888411273640628</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -874,7 +878,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>14.140234533828345</v>
+        <v>19.305253639389186</v>
       </c>
       <c r="E13">
         <v>18.481202067126489</v>
@@ -886,7 +890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -898,7 +902,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3598851356031343</v>
+        <v>3.9234911894448476</v>
       </c>
       <c r="E14">
         <v>19.762728180504215</v>
@@ -907,7 +911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -919,7 +923,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3810351374506267</v>
+        <v>18.024082346144205</v>
       </c>
       <c r="E15">
         <v>19.815486252140499</v>
@@ -928,7 +932,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -936,7 +945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>33</v>
       </c>
@@ -944,17 +953,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
@@ -977,12 +986,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -991,13 +1000,13 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C14" ca="1" si="0">RAND()*20</f>
-        <v>15.174368665035807</v>
+        <v>18.583437502127445</v>
       </c>
       <c r="D1">
         <v>0.84003515849563115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1006,13 +1015,13 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.62960113519356</v>
+        <v>6.0607416026968997</v>
       </c>
       <c r="D2">
         <v>2.8483221188226326</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1021,13 +1030,13 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1761118602828509</v>
+        <v>2.2517813937511999</v>
       </c>
       <c r="D3">
         <v>6.5688626425091057</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1036,13 +1045,13 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.934136156719939</v>
+        <v>10.891007931646104</v>
       </c>
       <c r="D4">
         <v>9.6091845376720393</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1051,13 +1060,13 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7939410999030168</v>
+        <v>3.345233977916211</v>
       </c>
       <c r="D5">
         <v>14.278923499025405</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1066,13 +1075,13 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.348450229575205</v>
+        <v>6.8595514654609495</v>
       </c>
       <c r="D6">
         <v>14.643098829580182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1081,13 +1090,13 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3877965221935487</v>
+        <v>0.70834287215328473</v>
       </c>
       <c r="D7">
         <v>15.6430988295802</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1096,13 +1105,13 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.471741454293106</v>
+        <v>17.997519102004588</v>
       </c>
       <c r="D8">
         <v>16.6430988295802</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1111,13 +1120,13 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.451547653024331</v>
+        <v>5.5148556049583046</v>
       </c>
       <c r="D9">
         <v>17.6430988295802</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1126,13 +1135,13 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.006776454827843</v>
+        <v>3.1086581352126941</v>
       </c>
       <c r="D10">
         <v>18.6430988295802</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1141,13 +1150,13 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7541019206306392</v>
+        <v>9.8682542113448477</v>
       </c>
       <c r="D11">
         <v>19.6430988295802</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1156,13 +1165,13 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.474727308884558</v>
+        <v>5.2406405008601826</v>
       </c>
       <c r="D12">
         <v>20.6430988295802</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1171,13 +1180,13 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37515278472570968</v>
+        <v>12.438409718974746</v>
       </c>
       <c r="D13">
         <v>21.6430988295802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1186,7 +1195,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.783356591569687</v>
+        <v>14.344881308075472</v>
       </c>
       <c r="D14">
         <v>22.6430988295802</v>
@@ -1207,12 +1216,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1221,13 +1230,13 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C6" ca="1" si="0">RAND()*20</f>
-        <v>1.1144055141262976</v>
+        <v>7.2127236985484888</v>
       </c>
       <c r="D1">
         <v>0.84003515849563115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1236,13 +1245,13 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.158733828447012</v>
+        <v>8.8401579408165283</v>
       </c>
       <c r="D2">
         <v>2.8483221188226326</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1251,13 +1260,13 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2375816584395842</v>
+        <v>15.996527936436573</v>
       </c>
       <c r="D3">
         <v>6.5688626425091057</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1266,13 +1275,13 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7215061375255889</v>
+        <v>13.860126734107286</v>
       </c>
       <c r="D4">
         <v>9.6091845376720393</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1281,13 +1290,13 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6466291461211053</v>
+        <v>9.4275449207029816</v>
       </c>
       <c r="D5">
         <v>14.278923499025405</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.320213498806709</v>
+        <v>9.5454331612856524</v>
       </c>
       <c r="D6">
         <v>14.643098829580182</v>
@@ -1317,12 +1326,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1331,13 +1340,13 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C37" ca="1" si="0">RAND()*100</f>
-        <v>49.929829345613349</v>
+        <v>88.401970637268036</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1346,13 +1355,13 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>56.063347760770355</v>
+        <v>32.989608661155167</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1361,13 +1370,13 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59430878301214296</v>
+        <v>57.286160803453932</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1376,13 +1385,13 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>50.429858945644199</v>
+        <v>12.052964028968926</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1391,13 +1400,13 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>90.347678753956828</v>
+        <v>97.053343329432607</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1406,13 +1415,13 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>85.798539096351718</v>
+        <v>55.512003248501905</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1421,13 +1430,13 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>67.105429095800346</v>
+        <v>10.71489151146503</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1436,13 +1445,13 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.331948381934076</v>
+        <v>80.750187803828084</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1451,13 +1460,13 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>74.100842476290325</v>
+        <v>68.524392892556264</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1466,13 +1475,13 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>94.707702970073441</v>
+        <v>73.115319462887896</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1481,13 +1490,13 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>44.850467431158137</v>
+        <v>30.823745753191357</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1496,13 +1505,13 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>74.964563952387536</v>
+        <v>63.843560611804698</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1511,13 +1520,13 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.916575258194376</v>
+        <v>20.728269057808756</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1526,13 +1535,13 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>81.129477886600711</v>
+        <v>42.156075437803587</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1541,13 +1550,13 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.044586715727458</v>
+        <v>66.49948052454441</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -1556,13 +1565,13 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>72.237277816893439</v>
+        <v>13.707788800335695</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1571,13 +1580,13 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>43.848616081436461</v>
+        <v>18.257723158973359</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1586,13 +1595,13 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>23.907567065036016</v>
+        <v>16.251458922215711</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -1601,13 +1610,13 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>86.9887265565918</v>
+        <v>0.59404946136236703</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -1616,13 +1625,13 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>33.411972571104698</v>
+        <v>72.757560501371373</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1631,13 +1640,13 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>79.580539204739068</v>
+        <v>94.347634896000514</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1646,13 +1655,13 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>25.16992909116772</v>
+        <v>8.8723887344817953</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1661,13 +1670,13 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>54.250183660451356</v>
+        <v>90.78906815277989</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -1676,13 +1685,13 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>35.016966946420638</v>
+        <v>31.151650399886677</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1691,10 +1700,10 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>94.805481776464646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6007836627725545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -1703,10 +1712,10 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>55.464972951510759</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.1042904188549416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1715,10 +1724,10 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>38.267625066809742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88.319661680340801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -1727,10 +1736,10 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>89.506825839209185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.3984648287815347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -1739,13 +1748,13 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>24.893192330702419</v>
+        <v>31.236369143141708</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1754,13 +1763,13 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>1.58805039184301</v>
+        <v>63.02768376877448</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1769,13 +1778,13 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>85.927267775430678</v>
+        <v>70.615913382202137</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -1784,13 +1793,13 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>77.523397422044127</v>
+        <v>92.364326979963948</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1799,13 +1808,13 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>65.60163236516469</v>
+        <v>55.242525237243413</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -1814,13 +1823,13 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>40.120138209022514</v>
+        <v>49.482080048329593</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>12</v>
       </c>
@@ -1829,13 +1838,13 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>74.065012771121815</v>
+        <v>55.012978908563589</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -1844,13 +1853,13 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>51.595231492615945</v>
+        <v>88.595404359579049</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -1859,13 +1868,13 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>86.85612355983325</v>
+        <v>13.929882774576852</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>6</v>
       </c>
@@ -1887,9 +1896,9 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2017,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>

--- a/分組-模具三.xlsx
+++ b/分組-模具三.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UltraTsay\ProjectMaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>17,27</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,10 +231,6 @@
   </si>
   <si>
     <t>簡易掃地機器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +612,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -647,7 +643,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D15" ca="1" si="0">RAND()*20</f>
-        <v>12.967945375989318</v>
+        <v>1.6437289218409301</v>
       </c>
       <c r="E2">
         <v>1.2412231747205293E-2</v>
@@ -668,7 +664,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3766720250561502</v>
+        <v>6.4715995043571368</v>
       </c>
       <c r="E3">
         <v>0.85470221605220997</v>
@@ -689,7 +685,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2290296328444881</v>
+        <v>16.190262786662263</v>
       </c>
       <c r="E4">
         <v>3.1937825777940376</v>
@@ -713,7 +709,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2948461240923437</v>
+        <v>0.39761979623151644</v>
       </c>
       <c r="E5">
         <v>4.5432547184313643</v>
@@ -734,7 +730,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7408600832057717</v>
+        <v>15.567547754000548</v>
       </c>
       <c r="E6">
         <v>5.8538211893155401</v>
@@ -755,7 +751,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4954523577236043</v>
+        <v>13.103198482963833</v>
       </c>
       <c r="E7">
         <v>8.3328042675709426</v>
@@ -776,7 +772,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.709703024926728</v>
+        <v>6.293068205984067</v>
       </c>
       <c r="E8">
         <v>9.5048887623068108</v>
@@ -797,7 +793,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>15.6783130934177</v>
+        <v>9.5113003173925605</v>
       </c>
       <c r="E9">
         <v>12.493990291096392</v>
@@ -818,7 +814,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.671144792834554</v>
+        <v>3.1753226583812788</v>
       </c>
       <c r="E10">
         <v>13.912876063120219</v>
@@ -839,7 +835,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>18.497991166249786</v>
+        <v>0.28136168691864638</v>
       </c>
       <c r="E11">
         <v>15.547067137355704</v>
@@ -860,7 +856,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2524339397361963</v>
+        <v>19.55886327993133</v>
       </c>
       <c r="E12">
         <v>16.888411273640628</v>
@@ -878,7 +874,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>19.305253639389186</v>
+        <v>3.7014803486199743</v>
       </c>
       <c r="E13">
         <v>18.481202067126489</v>
@@ -902,7 +898,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9234911894448476</v>
+        <v>1.335341068497875</v>
       </c>
       <c r="E14">
         <v>19.762728180504215</v>
@@ -923,18 +919,13 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>18.024082346144205</v>
+        <v>10.391361380637257</v>
       </c>
       <c r="E15">
         <v>19.815486252140499</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +991,7 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C14" ca="1" si="0">RAND()*20</f>
-        <v>18.583437502127445</v>
+        <v>8.1114772930155343E-2</v>
       </c>
       <c r="D1">
         <v>0.84003515849563115</v>
@@ -1015,7 +1006,7 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0607416026968997</v>
+        <v>1.9625893235782987</v>
       </c>
       <c r="D2">
         <v>2.8483221188226326</v>
@@ -1030,7 +1021,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2517813937511999</v>
+        <v>17.264662410764444</v>
       </c>
       <c r="D3">
         <v>6.5688626425091057</v>
@@ -1045,7 +1036,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.891007931646104</v>
+        <v>10.607348541730914</v>
       </c>
       <c r="D4">
         <v>9.6091845376720393</v>
@@ -1060,7 +1051,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.345233977916211</v>
+        <v>3.4734337173750052</v>
       </c>
       <c r="D5">
         <v>14.278923499025405</v>
@@ -1075,7 +1066,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8595514654609495</v>
+        <v>6.3428384852934894E-2</v>
       </c>
       <c r="D6">
         <v>14.643098829580182</v>
@@ -1090,7 +1081,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70834287215328473</v>
+        <v>9.2862162750786261</v>
       </c>
       <c r="D7">
         <v>15.6430988295802</v>
@@ -1105,7 +1096,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>17.997519102004588</v>
+        <v>6.2557647280533457</v>
       </c>
       <c r="D8">
         <v>16.6430988295802</v>
@@ -1120,7 +1111,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5148556049583046</v>
+        <v>14.509829136105346</v>
       </c>
       <c r="D9">
         <v>17.6430988295802</v>
@@ -1135,7 +1126,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1086581352126941</v>
+        <v>9.2771343984028665</v>
       </c>
       <c r="D10">
         <v>18.6430988295802</v>
@@ -1150,7 +1141,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8682542113448477</v>
+        <v>0.4771853888696298</v>
       </c>
       <c r="D11">
         <v>19.6430988295802</v>
@@ -1165,7 +1156,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2406405008601826</v>
+        <v>17.321647755885113</v>
       </c>
       <c r="D12">
         <v>20.6430988295802</v>
@@ -1180,7 +1171,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.438409718974746</v>
+        <v>11.952895856292901</v>
       </c>
       <c r="D13">
         <v>21.6430988295802</v>
@@ -1195,7 +1186,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.344881308075472</v>
+        <v>11.539950714162057</v>
       </c>
       <c r="D14">
         <v>22.6430988295802</v>
@@ -1230,7 +1221,7 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C6" ca="1" si="0">RAND()*20</f>
-        <v>7.2127236985484888</v>
+        <v>0.95654938844174309</v>
       </c>
       <c r="D1">
         <v>0.84003515849563115</v>
@@ -1245,7 +1236,7 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8401579408165283</v>
+        <v>13.729680972381162</v>
       </c>
       <c r="D2">
         <v>2.8483221188226326</v>
@@ -1260,7 +1251,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>15.996527936436573</v>
+        <v>14.482156842299467</v>
       </c>
       <c r="D3">
         <v>6.5688626425091057</v>
@@ -1275,7 +1266,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.860126734107286</v>
+        <v>17.112959167333958</v>
       </c>
       <c r="D4">
         <v>9.6091845376720393</v>
@@ -1290,7 +1281,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4275449207029816</v>
+        <v>0.67538629281155949</v>
       </c>
       <c r="D5">
         <v>14.278923499025405</v>
@@ -1305,7 +1296,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5454331612856524</v>
+        <v>9.8323567763890285</v>
       </c>
       <c r="D6">
         <v>14.643098829580182</v>
@@ -1340,7 +1331,7 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C37" ca="1" si="0">RAND()*100</f>
-        <v>88.401970637268036</v>
+        <v>1.457241931312736</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -1355,7 +1346,7 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>32.989608661155167</v>
+        <v>71.079124285680976</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1370,7 +1361,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>57.286160803453932</v>
+        <v>73.111478809446581</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1385,7 +1376,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.052964028968926</v>
+        <v>64.608282228036572</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1400,7 +1391,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>97.053343329432607</v>
+        <v>80.373506356780382</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1415,7 +1406,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>55.512003248501905</v>
+        <v>30.842542328541857</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1430,7 +1421,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.71489151146503</v>
+        <v>20.288741309145731</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1445,7 +1436,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>80.750187803828084</v>
+        <v>86.58148822994211</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1460,7 +1451,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>68.524392892556264</v>
+        <v>24.963854256484975</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1475,7 +1466,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>73.115319462887896</v>
+        <v>64.848779811994788</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1490,7 +1481,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.823745753191357</v>
+        <v>43.167305433715477</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1505,7 +1496,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>63.843560611804698</v>
+        <v>11.724161443208425</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1520,7 +1511,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>20.728269057808756</v>
+        <v>40.381758639156693</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1535,7 +1526,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>42.156075437803587</v>
+        <v>74.563347325379468</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1550,7 +1541,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>66.49948052454441</v>
+        <v>90.237572728264198</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1565,7 +1556,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.707788800335695</v>
+        <v>20.695114138410521</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1580,7 +1571,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>18.257723158973359</v>
+        <v>98.547451870793594</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1595,7 +1586,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>16.251458922215711</v>
+        <v>59.242803517571261</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1610,7 +1601,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59404946136236703</v>
+        <v>63.509596895384433</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1625,7 +1616,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>72.757560501371373</v>
+        <v>36.164731721863077</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1640,7 +1631,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>94.347634896000514</v>
+        <v>67.313129671417158</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1655,7 +1646,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8723887344817953</v>
+        <v>93.901457915355763</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1670,7 +1661,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>90.78906815277989</v>
+        <v>41.814379016502201</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1685,7 +1676,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>31.151650399886677</v>
+        <v>36.067512171705509</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1700,7 +1691,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6007836627725545</v>
+        <v>87.287688413858334</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,7 +1703,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1042904188549416</v>
+        <v>30.347773473919005</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1715,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>88.319661680340801</v>
+        <v>93.967165899408457</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,7 +1727,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3984648287815347</v>
+        <v>80.549022198051929</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,7 +1739,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>31.236369143141708</v>
+        <v>24.810073509239583</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1763,7 +1754,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>63.02768376877448</v>
+        <v>93.522194553561675</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1778,7 +1769,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>70.615913382202137</v>
+        <v>50.947193889165007</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1793,7 +1784,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>92.364326979963948</v>
+        <v>87.028832710501604</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1808,7 +1799,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>55.242525237243413</v>
+        <v>54.151667980606774</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1823,7 +1814,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>49.482080048329593</v>
+        <v>26.367289125256121</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1838,7 +1829,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>55.012978908563589</v>
+        <v>45.452539053013361</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1853,7 +1844,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>88.595404359579049</v>
+        <v>36.584561251298567</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1868,7 +1859,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>13.929882774576852</v>
+        <v>60.640931688053243</v>
       </c>
       <c r="D37">
         <v>1</v>
